--- a/pred_ohlcv/54_21/2020-01-12 ZEC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 ZEC ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>631.3061736499999</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>622.0471736499999</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>624.6447736499999</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>624.9147736499999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>622.1308736499999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>620.3600736499999</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>620.8813736499999</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -912,7 +912,7 @@
         <v>635.4961995199999</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>637.0163995199999</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>598.7741995199999</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>599.6140995199999</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>605.4507995199998</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>609.5768995199999</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>607.8650995199998</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>501.7886995199999</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>504.7086995199999</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>606.0029995199999</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>593.6651995199999</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>593.6651995199999</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>593.3452995199999</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>593.3452995199999</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>597.95289952</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>602.56049952</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>602.91729952</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>610.97399952</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>608.19009952</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>608.19009952</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>608.19009952</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>608.19009952</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>630.19009952</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>641.19009952</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>653.30959952</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>654.06739952</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>654.52279952</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>656.90479952</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>641.38429952</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>641.35949952</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>641.35949952</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>641.35949952</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>641.35949952</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>633.30279952</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>654.44919952</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>656.7491995199999</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>666.8691995199999</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>689.08049952</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>728.72999952</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>739.31039952</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>771.0420995200001</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>814.9676995200001</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>818.2865995200001</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>822.0428479700001</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>795.9849479700002</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>796.2360479700002</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>796.7775479700002</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>796.8835479700002</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>797.1560479700003</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>800.3378479700002</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>770.9312479700002</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>793.1466479700002</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>782.2782479700003</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>790.7728479700003</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>763.1608479700003</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>761.4962479700004</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>967.6419479700004</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>973.1780479700004</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>973.8585479700005</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>966.1931479700005</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>960.1912479700005</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>960.1912479700005</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>993.6912479700005</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>997.2701479700005</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>1304.804847970001</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>1311.25794797</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1311.28794797</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1311.313947970001</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-12 ZEC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 ZEC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>630.30317365</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>630.78317365</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>630.78317365</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>631.22027365</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -600,7 +600,7 @@
         <v>631.3061736499999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>622.0471736499999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>624.6447736499999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>624.9147736499999</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>622.1308736499999</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>621.1289736499999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>620.3600736499999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>620.2813736499999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>620.8813736499999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>637.9275995199998</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>637.6575995199998</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>635.4961995199999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>593.6651995199999</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>593.3452995199999</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>593.3452995199999</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>597.95289952</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>602.56049952</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>602.91729952</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>610.97399952</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>608.19009952</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>608.19009952</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>608.19009952</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>608.19009952</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>630.19009952</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>641.19009952</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>653.30959952</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>656.90479952</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>641.38429952</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>641.35949952</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>641.35949952</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>641.35949952</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>633.30279952</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>654.44919952</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>656.7491995199999</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>666.8691995199999</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>689.08049952</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>728.72999952</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>739.31039952</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>818.2865995200001</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>856.1195479700002</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>851.8964479700002</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>851.4631479700001</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>809.0426479700002</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>808.7566479700002</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>796.8835479700002</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>797.1560479700003</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>800.3378479700002</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>967.6419479700004</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1312.47804797</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>1316.384647970001</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>1304.804847970001</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>1311.25794797</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1311.28794797</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1311.313947970001</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
